--- a/Financials/Yearly/BIDU_YR_FIN.xlsx
+++ b/Financials/Yearly/BIDU_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66010A7-9238-4308-90B2-85B9DF31C9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIDU" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,141 +686,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12333800</v>
+        <v>15178900</v>
       </c>
       <c r="E8" s="3">
-        <v>10260000</v>
+        <v>12586500</v>
       </c>
       <c r="F8" s="3">
-        <v>9653900</v>
+        <v>10470200</v>
       </c>
       <c r="G8" s="3">
-        <v>7133700</v>
+        <v>9851700</v>
       </c>
       <c r="H8" s="3">
-        <v>4645600</v>
+        <v>7279900</v>
       </c>
       <c r="I8" s="3">
-        <v>3244000</v>
+        <v>4740800</v>
       </c>
       <c r="J8" s="3">
+        <v>3310400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2108800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6262500</v>
+        <v>7679300</v>
       </c>
       <c r="E9" s="3">
-        <v>5130600</v>
+        <v>6390800</v>
       </c>
       <c r="F9" s="3">
-        <v>3993200</v>
+        <v>5235700</v>
       </c>
       <c r="G9" s="3">
-        <v>2746500</v>
+        <v>4075000</v>
       </c>
       <c r="H9" s="3">
-        <v>1668300</v>
+        <v>2802800</v>
       </c>
       <c r="I9" s="3">
-        <v>937800</v>
+        <v>1702500</v>
       </c>
       <c r="J9" s="3">
+        <v>957000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1133400</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6071300</v>
+        <v>7499600</v>
       </c>
       <c r="E10" s="3">
-        <v>5129400</v>
+        <v>6195700</v>
       </c>
       <c r="F10" s="3">
-        <v>5660700</v>
+        <v>5234500</v>
       </c>
       <c r="G10" s="3">
-        <v>4387200</v>
+        <v>5776700</v>
       </c>
       <c r="H10" s="3">
-        <v>2977300</v>
+        <v>4477100</v>
       </c>
       <c r="I10" s="3">
-        <v>2306200</v>
+        <v>3038300</v>
       </c>
       <c r="J10" s="3">
+        <v>2353400</v>
+      </c>
+      <c r="K10" s="3">
         <v>975400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,35 +845,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1880100</v>
+        <v>2340700</v>
       </c>
       <c r="E12" s="3">
-        <v>1476200</v>
+        <v>1918600</v>
       </c>
       <c r="F12" s="3">
-        <v>1479900</v>
+        <v>1506500</v>
       </c>
       <c r="G12" s="3">
-        <v>1015200</v>
+        <v>1510200</v>
       </c>
       <c r="H12" s="3">
-        <v>597300</v>
+        <v>1036000</v>
       </c>
       <c r="I12" s="3">
-        <v>670400</v>
+        <v>609500</v>
       </c>
       <c r="J12" s="3">
+        <v>684100</v>
+      </c>
+      <c r="K12" s="3">
         <v>194100</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,9 +902,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -877,9 +932,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,9 +962,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -915,62 +976,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10051800</v>
+        <v>12874100</v>
       </c>
       <c r="E17" s="3">
-        <v>8798600</v>
+        <v>10257800</v>
       </c>
       <c r="F17" s="3">
-        <v>7956500</v>
+        <v>8978800</v>
       </c>
       <c r="G17" s="3">
-        <v>5271600</v>
+        <v>8119500</v>
       </c>
       <c r="H17" s="3">
-        <v>3018000</v>
+        <v>5379600</v>
       </c>
       <c r="I17" s="3">
-        <v>1636800</v>
+        <v>3079800</v>
       </c>
       <c r="J17" s="3">
+        <v>1670300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1007000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2281900</v>
+        <v>2304800</v>
       </c>
       <c r="E18" s="3">
-        <v>1461400</v>
+        <v>2328700</v>
       </c>
       <c r="F18" s="3">
-        <v>1697400</v>
+        <v>1491400</v>
       </c>
       <c r="G18" s="3">
-        <v>1862100</v>
+        <v>1732200</v>
       </c>
       <c r="H18" s="3">
-        <v>1627600</v>
+        <v>1900200</v>
       </c>
       <c r="I18" s="3">
-        <v>1607200</v>
+        <v>1661000</v>
       </c>
       <c r="J18" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1101900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,143 +1050,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1048100</v>
+        <v>2030000</v>
       </c>
       <c r="E20" s="3">
-        <v>817000</v>
+        <v>1069600</v>
       </c>
       <c r="F20" s="3">
-        <v>3966800</v>
+        <v>833700</v>
       </c>
       <c r="G20" s="3">
-        <v>335800</v>
+        <v>4048100</v>
       </c>
       <c r="H20" s="3">
-        <v>214100</v>
+        <v>342700</v>
       </c>
       <c r="I20" s="3">
-        <v>148600</v>
+        <v>218500</v>
       </c>
       <c r="J20" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K20" s="3">
         <v>45800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5043600</v>
+        <v>6741300</v>
       </c>
       <c r="E21" s="3">
-        <v>3493100</v>
+        <v>5144900</v>
       </c>
       <c r="F21" s="3">
-        <v>6519100</v>
+        <v>3563200</v>
       </c>
       <c r="G21" s="3">
-        <v>2777300</v>
+        <v>6651600</v>
       </c>
       <c r="H21" s="3">
-        <v>2228500</v>
+        <v>2833500</v>
       </c>
       <c r="I21" s="3">
-        <v>1976800</v>
+        <v>2273700</v>
       </c>
       <c r="J21" s="3">
+        <v>2017100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1276800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>234900</v>
+        <v>279500</v>
       </c>
       <c r="E22" s="3">
-        <v>168300</v>
+        <v>239700</v>
       </c>
       <c r="F22" s="3">
-        <v>151400</v>
+        <v>171800</v>
       </c>
       <c r="G22" s="3">
-        <v>91400</v>
+        <v>154600</v>
       </c>
       <c r="H22" s="3">
-        <v>65000</v>
+        <v>93300</v>
       </c>
       <c r="I22" s="3">
-        <v>15700</v>
+        <v>66400</v>
       </c>
       <c r="J22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3095200</v>
+        <v>4055300</v>
       </c>
       <c r="E23" s="3">
-        <v>2110100</v>
+        <v>3158600</v>
       </c>
       <c r="F23" s="3">
-        <v>5512800</v>
+        <v>2153300</v>
       </c>
       <c r="G23" s="3">
-        <v>2106500</v>
+        <v>5625700</v>
       </c>
       <c r="H23" s="3">
-        <v>1776700</v>
+        <v>2149600</v>
       </c>
       <c r="I23" s="3">
-        <v>1740100</v>
+        <v>1813100</v>
       </c>
       <c r="J23" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1135700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>435600</v>
+        <v>703900</v>
       </c>
       <c r="E24" s="3">
-        <v>423700</v>
+        <v>444500</v>
       </c>
       <c r="F24" s="3">
-        <v>796100</v>
+        <v>432400</v>
       </c>
       <c r="G24" s="3">
-        <v>324500</v>
+        <v>812500</v>
       </c>
       <c r="H24" s="3">
-        <v>266000</v>
+        <v>331100</v>
       </c>
       <c r="I24" s="3">
-        <v>228900</v>
+        <v>271400</v>
       </c>
       <c r="J24" s="3">
+        <v>233600</v>
+      </c>
+      <c r="K24" s="3">
         <v>172900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1143,63 +1227,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2659600</v>
+        <v>3351400</v>
       </c>
       <c r="E26" s="3">
-        <v>1686300</v>
+        <v>2714100</v>
       </c>
       <c r="F26" s="3">
-        <v>4716600</v>
+        <v>1720900</v>
       </c>
       <c r="G26" s="3">
-        <v>1782000</v>
+        <v>4813300</v>
       </c>
       <c r="H26" s="3">
-        <v>1510700</v>
+        <v>1818500</v>
       </c>
       <c r="I26" s="3">
-        <v>1511200</v>
+        <v>1541600</v>
       </c>
       <c r="J26" s="3">
+        <v>1542200</v>
+      </c>
+      <c r="K26" s="3">
         <v>962800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2664000</v>
+        <v>4072800</v>
       </c>
       <c r="E27" s="3">
-        <v>1610500</v>
+        <v>2718600</v>
       </c>
       <c r="F27" s="3">
-        <v>4847900</v>
+        <v>1643500</v>
       </c>
       <c r="G27" s="3">
-        <v>1911600</v>
+        <v>4947200</v>
       </c>
       <c r="H27" s="3">
-        <v>1529800</v>
+        <v>1950700</v>
       </c>
       <c r="I27" s="3">
-        <v>1517400</v>
+        <v>1561100</v>
       </c>
       <c r="J27" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="K27" s="3">
         <v>965500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1224,9 +1317,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1251,9 +1347,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1278,9 +1377,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1305,63 +1407,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1048100</v>
+        <v>-2030000</v>
       </c>
       <c r="E32" s="3">
-        <v>-817000</v>
+        <v>-1069600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3966800</v>
+        <v>-833700</v>
       </c>
       <c r="G32" s="3">
-        <v>-335800</v>
+        <v>-4048100</v>
       </c>
       <c r="H32" s="3">
-        <v>-214100</v>
+        <v>-342700</v>
       </c>
       <c r="I32" s="3">
-        <v>-148600</v>
+        <v>-218500</v>
       </c>
       <c r="J32" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-45800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2664000</v>
+        <v>4072800</v>
       </c>
       <c r="E33" s="3">
-        <v>1610500</v>
+        <v>2718600</v>
       </c>
       <c r="F33" s="3">
-        <v>4847900</v>
+        <v>1643500</v>
       </c>
       <c r="G33" s="3">
-        <v>1911600</v>
+        <v>4947200</v>
       </c>
       <c r="H33" s="3">
-        <v>1529800</v>
+        <v>1950700</v>
       </c>
       <c r="I33" s="3">
-        <v>1517400</v>
+        <v>1561100</v>
       </c>
       <c r="J33" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="K33" s="3">
         <v>965500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1386,68 +1497,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2664000</v>
+        <v>4072800</v>
       </c>
       <c r="E35" s="3">
-        <v>1610500</v>
+        <v>2718600</v>
       </c>
       <c r="F35" s="3">
-        <v>4847900</v>
+        <v>1643500</v>
       </c>
       <c r="G35" s="3">
-        <v>1911600</v>
+        <v>4947200</v>
       </c>
       <c r="H35" s="3">
-        <v>1529800</v>
+        <v>1950700</v>
       </c>
       <c r="I35" s="3">
-        <v>1517400</v>
+        <v>1561100</v>
       </c>
       <c r="J35" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="K35" s="3">
         <v>965500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1459,8 +1579,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1472,251 +1593,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1611900</v>
+        <v>4101800</v>
       </c>
       <c r="E41" s="3">
-        <v>1585000</v>
+        <v>1645000</v>
       </c>
       <c r="F41" s="3">
-        <v>1448500</v>
+        <v>1617400</v>
       </c>
       <c r="G41" s="3">
-        <v>2014600</v>
+        <v>1478200</v>
       </c>
       <c r="H41" s="3">
-        <v>1409500</v>
+        <v>2055900</v>
       </c>
       <c r="I41" s="3">
-        <v>1727800</v>
+        <v>1438400</v>
       </c>
       <c r="J41" s="3">
+        <v>1763200</v>
+      </c>
+      <c r="K41" s="3">
         <v>600300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>15667300</v>
+        <v>16566400</v>
       </c>
       <c r="E42" s="3">
-        <v>11480700</v>
+        <v>15988400</v>
       </c>
       <c r="F42" s="3">
-        <v>8430500</v>
+        <v>11715900</v>
       </c>
       <c r="G42" s="3">
-        <v>6209700</v>
+        <v>8603200</v>
       </c>
       <c r="H42" s="3">
-        <v>4178900</v>
+        <v>6336900</v>
       </c>
       <c r="I42" s="3">
-        <v>2996500</v>
+        <v>4264500</v>
       </c>
       <c r="J42" s="3">
+        <v>3057900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1461800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4215900</v>
+        <v>1141600</v>
       </c>
       <c r="E43" s="3">
-        <v>977000</v>
+        <v>4302300</v>
       </c>
       <c r="F43" s="3">
-        <v>933100</v>
+        <v>997000</v>
       </c>
       <c r="G43" s="3">
-        <v>1214300</v>
+        <v>952200</v>
       </c>
       <c r="H43" s="3">
-        <v>479700</v>
+        <v>1239200</v>
       </c>
       <c r="I43" s="3">
-        <v>201200</v>
+        <v>489600</v>
       </c>
       <c r="J43" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K43" s="3">
         <v>121900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>111100</v>
+        <v>250200</v>
       </c>
       <c r="E44" s="3">
-        <v>134200</v>
+        <v>113400</v>
       </c>
       <c r="F44" s="3">
-        <v>284100</v>
+        <v>136900</v>
       </c>
       <c r="G44" s="3">
-        <v>178300</v>
+        <v>290000</v>
       </c>
       <c r="H44" s="3">
-        <v>78500</v>
+        <v>181900</v>
       </c>
       <c r="I44" s="3">
-        <v>15600</v>
+        <v>80100</v>
       </c>
       <c r="J44" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>378300</v>
+        <v>957500</v>
       </c>
       <c r="E45" s="3">
-        <v>331100</v>
+        <v>386000</v>
       </c>
       <c r="F45" s="3">
-        <v>281300</v>
+        <v>337900</v>
       </c>
       <c r="G45" s="3">
-        <v>824000</v>
+        <v>287100</v>
       </c>
       <c r="H45" s="3">
-        <v>111200</v>
+        <v>840900</v>
       </c>
       <c r="I45" s="3">
-        <v>101600</v>
+        <v>113400</v>
       </c>
       <c r="J45" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K45" s="3">
         <v>125800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>21984500</v>
+        <v>23017500</v>
       </c>
       <c r="E46" s="3">
-        <v>14507900</v>
+        <v>22435000</v>
       </c>
       <c r="F46" s="3">
-        <v>11377500</v>
+        <v>14805200</v>
       </c>
       <c r="G46" s="3">
-        <v>9312800</v>
+        <v>11610700</v>
       </c>
       <c r="H46" s="3">
-        <v>6257700</v>
+        <v>9503700</v>
       </c>
       <c r="I46" s="3">
-        <v>5042700</v>
+        <v>6386000</v>
       </c>
       <c r="J46" s="3">
+        <v>5146000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2304800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8690800</v>
+        <v>12577900</v>
       </c>
       <c r="E47" s="3">
-        <v>7040300</v>
+        <v>8868800</v>
       </c>
       <c r="F47" s="3">
-        <v>5521700</v>
+        <v>7184600</v>
       </c>
       <c r="G47" s="3">
-        <v>515500</v>
+        <v>5634900</v>
       </c>
       <c r="H47" s="3">
-        <v>146300</v>
+        <v>526100</v>
       </c>
       <c r="I47" s="3">
-        <v>116900</v>
+        <v>149300</v>
       </c>
       <c r="J47" s="3">
+        <v>119200</v>
+      </c>
+      <c r="K47" s="3">
         <v>121300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1814200</v>
+        <v>2657000</v>
       </c>
       <c r="E48" s="3">
-        <v>1642500</v>
+        <v>1851400</v>
       </c>
       <c r="F48" s="3">
-        <v>1545500</v>
+        <v>1676200</v>
       </c>
       <c r="G48" s="3">
-        <v>2532000</v>
+        <v>1577200</v>
       </c>
       <c r="H48" s="3">
-        <v>781000</v>
+        <v>2583900</v>
       </c>
       <c r="I48" s="3">
-        <v>565400</v>
+        <v>797000</v>
       </c>
       <c r="J48" s="3">
+        <v>577000</v>
+      </c>
+      <c r="K48" s="3">
         <v>404600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3093700</v>
+        <v>4113500</v>
       </c>
       <c r="E49" s="3">
-        <v>2794300</v>
+        <v>3157100</v>
       </c>
       <c r="F49" s="3">
-        <v>2723900</v>
+        <v>2851600</v>
       </c>
       <c r="G49" s="3">
-        <v>3572900</v>
+        <v>2779700</v>
       </c>
       <c r="H49" s="3">
-        <v>2980500</v>
+        <v>3646100</v>
       </c>
       <c r="I49" s="3">
-        <v>796000</v>
+        <v>3041600</v>
       </c>
       <c r="J49" s="3">
+        <v>812300</v>
+      </c>
+      <c r="K49" s="3">
         <v>494200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1741,9 +1890,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1768,36 +1920,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1025600</v>
+        <v>1795900</v>
       </c>
       <c r="E52" s="3">
-        <v>482800</v>
+        <v>1046600</v>
       </c>
       <c r="F52" s="3">
-        <v>333600</v>
+        <v>492600</v>
       </c>
       <c r="G52" s="3">
-        <v>267300</v>
+        <v>340500</v>
       </c>
       <c r="H52" s="3">
-        <v>157900</v>
+        <v>272800</v>
       </c>
       <c r="I52" s="3">
-        <v>121900</v>
+        <v>161200</v>
       </c>
       <c r="J52" s="3">
+        <v>124400</v>
+      </c>
+      <c r="K52" s="3">
         <v>82300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1822,36 +1980,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>36608800</v>
+        <v>44161800</v>
       </c>
       <c r="E54" s="3">
-        <v>26467900</v>
+        <v>37359000</v>
       </c>
       <c r="F54" s="3">
-        <v>21502300</v>
+        <v>27010200</v>
       </c>
       <c r="G54" s="3">
-        <v>14414700</v>
+        <v>21942900</v>
       </c>
       <c r="H54" s="3">
-        <v>10323500</v>
+        <v>14710100</v>
       </c>
       <c r="I54" s="3">
-        <v>6641600</v>
+        <v>10535000</v>
       </c>
       <c r="J54" s="3">
+        <v>6777700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3394400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1863,8 +2027,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1876,170 +2041,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1527300</v>
+        <v>2108800</v>
       </c>
       <c r="E57" s="3">
-        <v>2022800</v>
+        <v>1558600</v>
       </c>
       <c r="F57" s="3">
-        <v>808000</v>
+        <v>2064300</v>
       </c>
       <c r="G57" s="3">
-        <v>2319500</v>
+        <v>824600</v>
       </c>
       <c r="H57" s="3">
-        <v>259700</v>
+        <v>2367100</v>
       </c>
       <c r="I57" s="3">
-        <v>395000</v>
+        <v>265000</v>
       </c>
       <c r="J57" s="3">
+        <v>403100</v>
+      </c>
+      <c r="K57" s="3">
         <v>181400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6724700</v>
+        <v>1484200</v>
       </c>
       <c r="E58" s="3">
-        <v>1424500</v>
+        <v>6862500</v>
       </c>
       <c r="F58" s="3">
-        <v>163000</v>
+        <v>1453700</v>
       </c>
       <c r="G58" s="3">
-        <v>337100</v>
+        <v>166400</v>
       </c>
       <c r="H58" s="3">
-        <v>56500</v>
+        <v>344000</v>
       </c>
       <c r="I58" s="3">
-        <v>320500</v>
+        <v>57700</v>
       </c>
       <c r="J58" s="3">
+        <v>327000</v>
+      </c>
+      <c r="K58" s="3">
         <v>27600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3681600</v>
+        <v>4844500</v>
       </c>
       <c r="E59" s="3">
-        <v>3257300</v>
+        <v>3757000</v>
       </c>
       <c r="F59" s="3">
-        <v>2825100</v>
+        <v>3324100</v>
       </c>
       <c r="G59" s="3">
-        <v>2229100</v>
+        <v>2883000</v>
       </c>
       <c r="H59" s="3">
-        <v>1288300</v>
+        <v>2274800</v>
       </c>
       <c r="I59" s="3">
-        <v>782700</v>
+        <v>1314700</v>
       </c>
       <c r="J59" s="3">
+        <v>798800</v>
+      </c>
+      <c r="K59" s="3">
         <v>525600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11933500</v>
+        <v>8437600</v>
       </c>
       <c r="E60" s="3">
-        <v>6704600</v>
+        <v>12178100</v>
       </c>
       <c r="F60" s="3">
-        <v>3796100</v>
+        <v>6842000</v>
       </c>
       <c r="G60" s="3">
-        <v>2948000</v>
+        <v>3873900</v>
       </c>
       <c r="H60" s="3">
-        <v>1604500</v>
+        <v>3008400</v>
       </c>
       <c r="I60" s="3">
-        <v>1197800</v>
+        <v>1637400</v>
       </c>
       <c r="J60" s="3">
+        <v>1222400</v>
+      </c>
+      <c r="K60" s="3">
         <v>640800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>5208100</v>
+        <v>8148200</v>
       </c>
       <c r="E61" s="3">
-        <v>5013100</v>
+        <v>5314900</v>
       </c>
       <c r="F61" s="3">
-        <v>4937400</v>
+        <v>5115800</v>
       </c>
       <c r="G61" s="3">
-        <v>3412800</v>
+        <v>5038600</v>
       </c>
       <c r="H61" s="3">
-        <v>2511600</v>
+        <v>3482700</v>
       </c>
       <c r="I61" s="3">
-        <v>1416200</v>
+        <v>2563100</v>
       </c>
       <c r="J61" s="3">
+        <v>1445200</v>
+      </c>
+      <c r="K61" s="3">
         <v>335700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>507100</v>
+        <v>1492700</v>
       </c>
       <c r="E62" s="3">
-        <v>535500</v>
+        <v>517500</v>
       </c>
       <c r="F62" s="3">
-        <v>521300</v>
+        <v>546400</v>
       </c>
       <c r="G62" s="3">
-        <v>193100</v>
+        <v>532000</v>
       </c>
       <c r="H62" s="3">
-        <v>293400</v>
+        <v>197100</v>
       </c>
       <c r="I62" s="3">
-        <v>69700</v>
+        <v>299400</v>
       </c>
       <c r="J62" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K62" s="3">
         <v>43700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2064,9 +2248,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2091,9 +2278,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2118,36 +2308,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19834000</v>
+        <v>19986200</v>
       </c>
       <c r="E66" s="3">
-        <v>13048500</v>
+        <v>20240500</v>
       </c>
       <c r="F66" s="3">
-        <v>9830700</v>
+        <v>13315900</v>
       </c>
       <c r="G66" s="3">
-        <v>6987300</v>
+        <v>10032200</v>
       </c>
       <c r="H66" s="3">
-        <v>4735300</v>
+        <v>7130500</v>
       </c>
       <c r="I66" s="3">
-        <v>2852400</v>
+        <v>4832400</v>
       </c>
       <c r="J66" s="3">
+        <v>2910900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1170500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2159,8 +2355,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2185,9 +2382,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2212,9 +2412,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2239,9 +2442,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2266,36 +2472,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>14881600</v>
+        <v>19181400</v>
       </c>
       <c r="E72" s="3">
-        <v>12468300</v>
+        <v>15186500</v>
       </c>
       <c r="F72" s="3">
-        <v>10857700</v>
+        <v>12723700</v>
       </c>
       <c r="G72" s="3">
-        <v>6937200</v>
+        <v>11080200</v>
       </c>
       <c r="H72" s="3">
-        <v>5021000</v>
+        <v>7079400</v>
       </c>
       <c r="I72" s="3">
-        <v>3495900</v>
+        <v>5123900</v>
       </c>
       <c r="J72" s="3">
+        <v>3567500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1978500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2320,9 +2532,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2347,9 +2562,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2374,36 +2592,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>16774800</v>
+        <v>24175500</v>
       </c>
       <c r="E76" s="3">
-        <v>13419300</v>
+        <v>17118500</v>
       </c>
       <c r="F76" s="3">
-        <v>11671600</v>
+        <v>13694300</v>
       </c>
       <c r="G76" s="3">
-        <v>7427500</v>
+        <v>11910700</v>
       </c>
       <c r="H76" s="3">
-        <v>5588100</v>
+        <v>7579700</v>
       </c>
       <c r="I76" s="3">
-        <v>3789200</v>
+        <v>5702600</v>
       </c>
       <c r="J76" s="3">
+        <v>3866900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2223900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2428,68 +2652,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2664000</v>
+        <v>4072800</v>
       </c>
       <c r="E81" s="3">
-        <v>1610500</v>
+        <v>2718600</v>
       </c>
       <c r="F81" s="3">
-        <v>4847900</v>
+        <v>1643500</v>
       </c>
       <c r="G81" s="3">
-        <v>1911600</v>
+        <v>4947200</v>
       </c>
       <c r="H81" s="3">
-        <v>1529800</v>
+        <v>1950700</v>
       </c>
       <c r="I81" s="3">
-        <v>1517400</v>
+        <v>1561100</v>
       </c>
       <c r="J81" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="K81" s="3">
         <v>965500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2501,35 +2734,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1708500</v>
+        <v>2402300</v>
       </c>
       <c r="E83" s="3">
-        <v>1211100</v>
+        <v>1743500</v>
       </c>
       <c r="F83" s="3">
-        <v>852400</v>
+        <v>1235900</v>
       </c>
       <c r="G83" s="3">
-        <v>577700</v>
+        <v>869800</v>
       </c>
       <c r="H83" s="3">
-        <v>385700</v>
+        <v>589500</v>
       </c>
       <c r="I83" s="3">
-        <v>220400</v>
+        <v>393600</v>
       </c>
       <c r="J83" s="3">
+        <v>224900</v>
+      </c>
+      <c r="K83" s="3">
         <v>128700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2554,9 +2791,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2581,9 +2821,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2608,9 +2851,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2635,9 +2881,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2662,36 +2911,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4781700</v>
+        <v>5337900</v>
       </c>
       <c r="E89" s="3">
-        <v>3237000</v>
+        <v>4879700</v>
       </c>
       <c r="F89" s="3">
-        <v>2824600</v>
+        <v>3303400</v>
       </c>
       <c r="G89" s="3">
-        <v>2608600</v>
+        <v>2882500</v>
       </c>
       <c r="H89" s="3">
-        <v>2005900</v>
+        <v>2662100</v>
       </c>
       <c r="I89" s="3">
-        <v>1744600</v>
+        <v>2047000</v>
       </c>
       <c r="J89" s="3">
+        <v>1780300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1189400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2703,35 +2958,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2028900</v>
+        <v>-1315100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1528400</v>
+        <v>-716700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1130600</v>
+        <v>-625600</v>
       </c>
       <c r="G91" s="3">
-        <v>-930100</v>
+        <v>-779200</v>
       </c>
       <c r="H91" s="3">
-        <v>-535300</v>
+        <v>-717000</v>
       </c>
       <c r="I91" s="3">
-        <v>-373200</v>
+        <v>-410900</v>
       </c>
       <c r="J91" s="3">
+        <v>-347200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-340700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2756,9 +3015,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2783,36 +3045,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-11188700</v>
+        <v>-5114200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5222500</v>
+        <v>-11417900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4548000</v>
+        <v>-5329500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3267500</v>
+        <v>-4641100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3354000</v>
+        <v>-3334400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1999500</v>
+        <v>-3422800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2040500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2072500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2824,8 +3092,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -2850,9 +3119,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2877,9 +3149,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2904,9 +3179,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2931,88 +3209,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>6479900</v>
+        <v>2238300</v>
       </c>
       <c r="E100" s="3">
-        <v>2101000</v>
+        <v>6612700</v>
       </c>
       <c r="F100" s="3">
-        <v>1131200</v>
+        <v>2144000</v>
       </c>
       <c r="G100" s="3">
-        <v>1252400</v>
+        <v>1154300</v>
       </c>
       <c r="H100" s="3">
-        <v>1059000</v>
+        <v>1278100</v>
       </c>
       <c r="I100" s="3">
-        <v>1384200</v>
+        <v>1080700</v>
       </c>
       <c r="J100" s="3">
+        <v>1412500</v>
+      </c>
+      <c r="K100" s="3">
         <v>352800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-46000</v>
+        <v>282300</v>
       </c>
       <c r="E101" s="3">
-        <v>21000</v>
+        <v>-46900</v>
       </c>
       <c r="F101" s="3">
-        <v>26100</v>
+        <v>21400</v>
       </c>
       <c r="G101" s="3">
-        <v>11600</v>
+        <v>26600</v>
       </c>
       <c r="H101" s="3">
-        <v>-29200</v>
+        <v>11800</v>
       </c>
       <c r="I101" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>27000</v>
+        <v>2744200</v>
       </c>
       <c r="E102" s="3">
-        <v>136500</v>
+        <v>27600</v>
       </c>
       <c r="F102" s="3">
-        <v>-566100</v>
+        <v>139300</v>
       </c>
       <c r="G102" s="3">
-        <v>605100</v>
+        <v>-577700</v>
       </c>
       <c r="H102" s="3">
-        <v>-318300</v>
+        <v>617500</v>
       </c>
       <c r="I102" s="3">
-        <v>1127500</v>
+        <v>-324800</v>
       </c>
       <c r="J102" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-531500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/BIDU_YR_FIN.xlsx
+++ b/Financials/Yearly/BIDU_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66010A7-9238-4308-90B2-85B9DF31C9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BIDU" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>BIDU</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,34 +654,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,97 +711,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15178900</v>
+        <v>14674700</v>
       </c>
       <c r="E8" s="3">
-        <v>12586500</v>
+        <v>12168400</v>
       </c>
       <c r="F8" s="3">
-        <v>10470200</v>
+        <v>10122400</v>
       </c>
       <c r="G8" s="3">
-        <v>9851700</v>
+        <v>9524500</v>
       </c>
       <c r="H8" s="3">
-        <v>7279900</v>
+        <v>7038000</v>
       </c>
       <c r="I8" s="3">
-        <v>4740800</v>
+        <v>4583300</v>
       </c>
       <c r="J8" s="3">
-        <v>3310400</v>
+        <v>3200500</v>
       </c>
       <c r="K8" s="3">
         <v>2108800</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7679300</v>
+        <v>7424200</v>
       </c>
       <c r="E9" s="3">
-        <v>6390800</v>
+        <v>6178500</v>
       </c>
       <c r="F9" s="3">
-        <v>5235700</v>
+        <v>5061800</v>
       </c>
       <c r="G9" s="3">
-        <v>4075000</v>
+        <v>3939700</v>
       </c>
       <c r="H9" s="3">
-        <v>2802800</v>
+        <v>2709700</v>
       </c>
       <c r="I9" s="3">
-        <v>1702500</v>
+        <v>1646000</v>
       </c>
       <c r="J9" s="3">
-        <v>957000</v>
+        <v>925200</v>
       </c>
       <c r="K9" s="3">
         <v>1133400</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7499600</v>
+        <v>7250500</v>
       </c>
       <c r="E10" s="3">
-        <v>6195700</v>
+        <v>5989900</v>
       </c>
       <c r="F10" s="3">
-        <v>5234500</v>
+        <v>5060600</v>
       </c>
       <c r="G10" s="3">
-        <v>5776700</v>
+        <v>5584800</v>
       </c>
       <c r="H10" s="3">
-        <v>4477100</v>
+        <v>4328300</v>
       </c>
       <c r="I10" s="3">
-        <v>3038300</v>
+        <v>2937300</v>
       </c>
       <c r="J10" s="3">
-        <v>2353400</v>
+        <v>2275200</v>
       </c>
       <c r="K10" s="3">
         <v>975400</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,37 +815,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2340700</v>
+        <v>2263000</v>
       </c>
       <c r="E12" s="3">
-        <v>1918600</v>
+        <v>1854900</v>
       </c>
       <c r="F12" s="3">
-        <v>1506500</v>
+        <v>1456400</v>
       </c>
       <c r="G12" s="3">
-        <v>1510200</v>
+        <v>1460000</v>
       </c>
       <c r="H12" s="3">
-        <v>1036000</v>
+        <v>1001600</v>
       </c>
       <c r="I12" s="3">
-        <v>609500</v>
+        <v>589200</v>
       </c>
       <c r="J12" s="3">
-        <v>684100</v>
+        <v>661400</v>
       </c>
       <c r="K12" s="3">
         <v>194100</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,37 +875,37 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-789100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,7 +935,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,67 +946,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12874100</v>
+        <v>11657300</v>
       </c>
       <c r="E17" s="3">
-        <v>10257800</v>
+        <v>9917100</v>
       </c>
       <c r="F17" s="3">
-        <v>8978800</v>
+        <v>8680600</v>
       </c>
       <c r="G17" s="3">
-        <v>8119500</v>
+        <v>7849800</v>
       </c>
       <c r="H17" s="3">
-        <v>5379600</v>
+        <v>5200900</v>
       </c>
       <c r="I17" s="3">
-        <v>3079800</v>
+        <v>2977500</v>
       </c>
       <c r="J17" s="3">
-        <v>1670300</v>
+        <v>1614800</v>
       </c>
       <c r="K17" s="3">
         <v>1007000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2304800</v>
+        <v>3017400</v>
       </c>
       <c r="E18" s="3">
-        <v>2328700</v>
+        <v>2251300</v>
       </c>
       <c r="F18" s="3">
-        <v>1491400</v>
+        <v>1441800</v>
       </c>
       <c r="G18" s="3">
-        <v>1732200</v>
+        <v>1674600</v>
       </c>
       <c r="H18" s="3">
-        <v>1900200</v>
+        <v>1837100</v>
       </c>
       <c r="I18" s="3">
-        <v>1661000</v>
+        <v>1605800</v>
       </c>
       <c r="J18" s="3">
-        <v>1640100</v>
+        <v>1585600</v>
       </c>
       <c r="K18" s="3">
         <v>1101900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,157 +1020,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2030000</v>
+        <v>1173400</v>
       </c>
       <c r="E20" s="3">
-        <v>1069600</v>
+        <v>1034100</v>
       </c>
       <c r="F20" s="3">
-        <v>833700</v>
+        <v>806000</v>
       </c>
       <c r="G20" s="3">
-        <v>4048100</v>
+        <v>3913600</v>
       </c>
       <c r="H20" s="3">
-        <v>342700</v>
+        <v>331300</v>
       </c>
       <c r="I20" s="3">
-        <v>218500</v>
+        <v>211200</v>
       </c>
       <c r="J20" s="3">
-        <v>151700</v>
+        <v>146600</v>
       </c>
       <c r="K20" s="3">
         <v>45800</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6741300</v>
+        <v>6512500</v>
       </c>
       <c r="E21" s="3">
-        <v>5144900</v>
+        <v>4970400</v>
       </c>
       <c r="F21" s="3">
-        <v>3563200</v>
+        <v>3442300</v>
       </c>
       <c r="G21" s="3">
-        <v>6651600</v>
+        <v>6428900</v>
       </c>
       <c r="H21" s="3">
-        <v>2833500</v>
+        <v>2738200</v>
       </c>
       <c r="I21" s="3">
-        <v>2273700</v>
+        <v>2197400</v>
       </c>
       <c r="J21" s="3">
-        <v>2017100</v>
+        <v>1949600</v>
       </c>
       <c r="K21" s="3">
         <v>1276800</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>279500</v>
+        <v>270200</v>
       </c>
       <c r="E22" s="3">
-        <v>239700</v>
+        <v>231700</v>
       </c>
       <c r="F22" s="3">
-        <v>171800</v>
+        <v>166100</v>
       </c>
       <c r="G22" s="3">
-        <v>154600</v>
+        <v>149400</v>
       </c>
       <c r="H22" s="3">
-        <v>93300</v>
+        <v>90200</v>
       </c>
       <c r="I22" s="3">
-        <v>66400</v>
+        <v>64100</v>
       </c>
       <c r="J22" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="K22" s="3">
         <v>12000</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>4055300</v>
+        <v>3920600</v>
       </c>
       <c r="E23" s="3">
-        <v>3158600</v>
+        <v>3053700</v>
       </c>
       <c r="F23" s="3">
-        <v>2153300</v>
+        <v>2081800</v>
       </c>
       <c r="G23" s="3">
-        <v>5625700</v>
+        <v>5438800</v>
       </c>
       <c r="H23" s="3">
-        <v>2149600</v>
+        <v>2078200</v>
       </c>
       <c r="I23" s="3">
-        <v>1813100</v>
+        <v>1752900</v>
       </c>
       <c r="J23" s="3">
-        <v>1775800</v>
+        <v>1716800</v>
       </c>
       <c r="K23" s="3">
         <v>1135700</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>703900</v>
+        <v>680500</v>
       </c>
       <c r="E24" s="3">
-        <v>444500</v>
+        <v>429700</v>
       </c>
       <c r="F24" s="3">
-        <v>432400</v>
+        <v>418000</v>
       </c>
       <c r="G24" s="3">
-        <v>812500</v>
+        <v>785500</v>
       </c>
       <c r="H24" s="3">
-        <v>331100</v>
+        <v>320100</v>
       </c>
       <c r="I24" s="3">
-        <v>271400</v>
+        <v>262400</v>
       </c>
       <c r="J24" s="3">
-        <v>233600</v>
+        <v>225900</v>
       </c>
       <c r="K24" s="3">
         <v>172900</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,67 +1200,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3351400</v>
+        <v>3240100</v>
       </c>
       <c r="E26" s="3">
-        <v>2714100</v>
+        <v>2624000</v>
       </c>
       <c r="F26" s="3">
-        <v>1720900</v>
+        <v>1663700</v>
       </c>
       <c r="G26" s="3">
-        <v>4813300</v>
+        <v>4653400</v>
       </c>
       <c r="H26" s="3">
-        <v>1818500</v>
+        <v>1758100</v>
       </c>
       <c r="I26" s="3">
-        <v>1541600</v>
+        <v>1490400</v>
       </c>
       <c r="J26" s="3">
-        <v>1542200</v>
+        <v>1490900</v>
       </c>
       <c r="K26" s="3">
         <v>962800</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4072800</v>
+        <v>3937500</v>
       </c>
       <c r="E27" s="3">
-        <v>2718600</v>
+        <v>2628300</v>
       </c>
       <c r="F27" s="3">
-        <v>1643500</v>
+        <v>1588900</v>
       </c>
       <c r="G27" s="3">
-        <v>4947200</v>
+        <v>4782900</v>
       </c>
       <c r="H27" s="3">
-        <v>1950700</v>
+        <v>1885900</v>
       </c>
       <c r="I27" s="3">
-        <v>1561100</v>
+        <v>1509200</v>
       </c>
       <c r="J27" s="3">
-        <v>1548500</v>
+        <v>1497100</v>
       </c>
       <c r="K27" s="3">
         <v>965500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1290,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1320,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1350,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,67 +1380,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2030000</v>
+        <v>-1173400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1069600</v>
+        <v>-1034100</v>
       </c>
       <c r="F32" s="3">
-        <v>-833700</v>
+        <v>-806000</v>
       </c>
       <c r="G32" s="3">
-        <v>-4048100</v>
+        <v>-3913600</v>
       </c>
       <c r="H32" s="3">
-        <v>-342700</v>
+        <v>-331300</v>
       </c>
       <c r="I32" s="3">
-        <v>-218500</v>
+        <v>-211200</v>
       </c>
       <c r="J32" s="3">
-        <v>-151700</v>
+        <v>-146600</v>
       </c>
       <c r="K32" s="3">
         <v>-45800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4072800</v>
+        <v>3937500</v>
       </c>
       <c r="E33" s="3">
-        <v>2718600</v>
+        <v>2628300</v>
       </c>
       <c r="F33" s="3">
-        <v>1643500</v>
+        <v>1588900</v>
       </c>
       <c r="G33" s="3">
-        <v>4947200</v>
+        <v>4782900</v>
       </c>
       <c r="H33" s="3">
-        <v>1950700</v>
+        <v>1885900</v>
       </c>
       <c r="I33" s="3">
-        <v>1561100</v>
+        <v>1509200</v>
       </c>
       <c r="J33" s="3">
-        <v>1548500</v>
+        <v>1497100</v>
       </c>
       <c r="K33" s="3">
         <v>965500</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1502,42 +1470,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4072800</v>
+        <v>3937500</v>
       </c>
       <c r="E35" s="3">
-        <v>2718600</v>
+        <v>2628300</v>
       </c>
       <c r="F35" s="3">
-        <v>1643500</v>
+        <v>1588900</v>
       </c>
       <c r="G35" s="3">
-        <v>4947200</v>
+        <v>4782900</v>
       </c>
       <c r="H35" s="3">
-        <v>1950700</v>
+        <v>1885900</v>
       </c>
       <c r="I35" s="3">
-        <v>1561100</v>
+        <v>1509200</v>
       </c>
       <c r="J35" s="3">
-        <v>1548500</v>
+        <v>1497100</v>
       </c>
       <c r="K35" s="3">
         <v>965500</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1535,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1549,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,277 +1563,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4101800</v>
+        <v>3965500</v>
       </c>
       <c r="E41" s="3">
-        <v>1645000</v>
+        <v>1590300</v>
       </c>
       <c r="F41" s="3">
-        <v>1617400</v>
+        <v>1563700</v>
       </c>
       <c r="G41" s="3">
-        <v>1478200</v>
+        <v>1429100</v>
       </c>
       <c r="H41" s="3">
-        <v>2055900</v>
+        <v>1987600</v>
       </c>
       <c r="I41" s="3">
-        <v>1438400</v>
+        <v>1390600</v>
       </c>
       <c r="J41" s="3">
-        <v>1763200</v>
+        <v>1704600</v>
       </c>
       <c r="K41" s="3">
         <v>600300</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>16566400</v>
+        <v>16016100</v>
       </c>
       <c r="E42" s="3">
-        <v>15988400</v>
+        <v>15457200</v>
       </c>
       <c r="F42" s="3">
-        <v>11715900</v>
+        <v>11326800</v>
       </c>
       <c r="G42" s="3">
-        <v>8603200</v>
+        <v>8317400</v>
       </c>
       <c r="H42" s="3">
-        <v>6336900</v>
+        <v>6126400</v>
       </c>
       <c r="I42" s="3">
-        <v>4264500</v>
+        <v>4122900</v>
       </c>
       <c r="J42" s="3">
-        <v>3057900</v>
+        <v>2956300</v>
       </c>
       <c r="K42" s="3">
         <v>1461800</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1141600</v>
+        <v>1306700</v>
       </c>
       <c r="E43" s="3">
-        <v>4302300</v>
+        <v>4159300</v>
       </c>
       <c r="F43" s="3">
-        <v>997000</v>
+        <v>963900</v>
       </c>
       <c r="G43" s="3">
-        <v>952200</v>
+        <v>920600</v>
       </c>
       <c r="H43" s="3">
-        <v>1239200</v>
+        <v>1198000</v>
       </c>
       <c r="I43" s="3">
-        <v>489600</v>
+        <v>473300</v>
       </c>
       <c r="J43" s="3">
-        <v>205400</v>
+        <v>198500</v>
       </c>
       <c r="K43" s="3">
         <v>121900</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>250200</v>
+        <v>241900</v>
       </c>
       <c r="E44" s="3">
-        <v>113400</v>
+        <v>109600</v>
       </c>
       <c r="F44" s="3">
-        <v>136900</v>
+        <v>132400</v>
       </c>
       <c r="G44" s="3">
-        <v>290000</v>
+        <v>280300</v>
       </c>
       <c r="H44" s="3">
-        <v>181900</v>
+        <v>175900</v>
       </c>
       <c r="I44" s="3">
-        <v>80100</v>
+        <v>77400</v>
       </c>
       <c r="J44" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="K44" s="3">
         <v>3600</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>957500</v>
+        <v>722700</v>
       </c>
       <c r="E45" s="3">
-        <v>386000</v>
+        <v>373200</v>
       </c>
       <c r="F45" s="3">
-        <v>337900</v>
+        <v>326700</v>
       </c>
       <c r="G45" s="3">
-        <v>287100</v>
+        <v>277600</v>
       </c>
       <c r="H45" s="3">
-        <v>840900</v>
+        <v>812900</v>
       </c>
       <c r="I45" s="3">
-        <v>113400</v>
+        <v>109700</v>
       </c>
       <c r="J45" s="3">
-        <v>103700</v>
+        <v>100200</v>
       </c>
       <c r="K45" s="3">
         <v>125800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>23017500</v>
+        <v>22252900</v>
       </c>
       <c r="E46" s="3">
-        <v>22435000</v>
+        <v>21689700</v>
       </c>
       <c r="F46" s="3">
-        <v>14805200</v>
+        <v>14313400</v>
       </c>
       <c r="G46" s="3">
-        <v>11610700</v>
+        <v>11225000</v>
       </c>
       <c r="H46" s="3">
-        <v>9503700</v>
+        <v>9188000</v>
       </c>
       <c r="I46" s="3">
-        <v>6386000</v>
+        <v>6173800</v>
       </c>
       <c r="J46" s="3">
-        <v>5146000</v>
+        <v>4975000</v>
       </c>
       <c r="K46" s="3">
         <v>2304800</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>12577900</v>
+        <v>12160100</v>
       </c>
       <c r="E47" s="3">
-        <v>8868800</v>
+        <v>8574200</v>
       </c>
       <c r="F47" s="3">
-        <v>7184600</v>
+        <v>6945900</v>
       </c>
       <c r="G47" s="3">
-        <v>5634900</v>
+        <v>5447700</v>
       </c>
       <c r="H47" s="3">
-        <v>526100</v>
+        <v>508600</v>
       </c>
       <c r="I47" s="3">
-        <v>149300</v>
+        <v>144300</v>
       </c>
       <c r="J47" s="3">
-        <v>119200</v>
+        <v>115300</v>
       </c>
       <c r="K47" s="3">
         <v>121300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2657000</v>
+        <v>2568700</v>
       </c>
       <c r="E48" s="3">
-        <v>1851400</v>
+        <v>1789900</v>
       </c>
       <c r="F48" s="3">
-        <v>1676200</v>
+        <v>1620500</v>
       </c>
       <c r="G48" s="3">
-        <v>1577200</v>
+        <v>1524800</v>
       </c>
       <c r="H48" s="3">
-        <v>2583900</v>
+        <v>2498100</v>
       </c>
       <c r="I48" s="3">
-        <v>797000</v>
+        <v>770500</v>
       </c>
       <c r="J48" s="3">
-        <v>577000</v>
+        <v>557800</v>
       </c>
       <c r="K48" s="3">
         <v>404600</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4113500</v>
+        <v>3976800</v>
       </c>
       <c r="E49" s="3">
-        <v>3157100</v>
+        <v>3052300</v>
       </c>
       <c r="F49" s="3">
-        <v>2851600</v>
+        <v>2756900</v>
       </c>
       <c r="G49" s="3">
-        <v>2779700</v>
+        <v>2687400</v>
       </c>
       <c r="H49" s="3">
-        <v>3646100</v>
+        <v>3525000</v>
       </c>
       <c r="I49" s="3">
-        <v>3041600</v>
+        <v>2940600</v>
       </c>
       <c r="J49" s="3">
-        <v>812300</v>
+        <v>785300</v>
       </c>
       <c r="K49" s="3">
         <v>494200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1895,7 +1863,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1925,37 +1893,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1795900</v>
+        <v>1736300</v>
       </c>
       <c r="E52" s="3">
-        <v>1046600</v>
+        <v>1011800</v>
       </c>
       <c r="F52" s="3">
-        <v>492600</v>
+        <v>476300</v>
       </c>
       <c r="G52" s="3">
-        <v>340500</v>
+        <v>329100</v>
       </c>
       <c r="H52" s="3">
-        <v>272800</v>
+        <v>263700</v>
       </c>
       <c r="I52" s="3">
-        <v>161200</v>
+        <v>155800</v>
       </c>
       <c r="J52" s="3">
-        <v>124400</v>
+        <v>120300</v>
       </c>
       <c r="K52" s="3">
         <v>82300</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,37 +1953,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>44161800</v>
+        <v>42694800</v>
       </c>
       <c r="E54" s="3">
-        <v>37359000</v>
+        <v>36117900</v>
       </c>
       <c r="F54" s="3">
-        <v>27010200</v>
+        <v>26113000</v>
       </c>
       <c r="G54" s="3">
-        <v>21942900</v>
+        <v>21214000</v>
       </c>
       <c r="H54" s="3">
-        <v>14710100</v>
+        <v>14221500</v>
       </c>
       <c r="I54" s="3">
-        <v>10535000</v>
+        <v>10185000</v>
       </c>
       <c r="J54" s="3">
-        <v>6777700</v>
+        <v>6552600</v>
       </c>
       <c r="K54" s="3">
         <v>3394400</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +1997,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2043,187 +2011,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2108800</v>
+        <v>2038700</v>
       </c>
       <c r="E57" s="3">
-        <v>1558600</v>
+        <v>1506800</v>
       </c>
       <c r="F57" s="3">
-        <v>2064300</v>
+        <v>1995700</v>
       </c>
       <c r="G57" s="3">
-        <v>824600</v>
+        <v>797200</v>
       </c>
       <c r="H57" s="3">
-        <v>2367100</v>
+        <v>2288400</v>
       </c>
       <c r="I57" s="3">
-        <v>265000</v>
+        <v>256200</v>
       </c>
       <c r="J57" s="3">
-        <v>403100</v>
+        <v>389700</v>
       </c>
       <c r="K57" s="3">
         <v>181400</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1484200</v>
+        <v>1434900</v>
       </c>
       <c r="E58" s="3">
-        <v>6862500</v>
+        <v>1112500</v>
       </c>
       <c r="F58" s="3">
-        <v>1453700</v>
+        <v>1405400</v>
       </c>
       <c r="G58" s="3">
-        <v>166400</v>
+        <v>160800</v>
       </c>
       <c r="H58" s="3">
-        <v>344000</v>
+        <v>332600</v>
       </c>
       <c r="I58" s="3">
-        <v>57700</v>
+        <v>55700</v>
       </c>
       <c r="J58" s="3">
-        <v>327000</v>
+        <v>316200</v>
       </c>
       <c r="K58" s="3">
         <v>27600</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4844500</v>
+        <v>4683600</v>
       </c>
       <c r="E59" s="3">
-        <v>3757000</v>
+        <v>9154200</v>
       </c>
       <c r="F59" s="3">
-        <v>3324100</v>
+        <v>3213600</v>
       </c>
       <c r="G59" s="3">
-        <v>2883000</v>
+        <v>2787200</v>
       </c>
       <c r="H59" s="3">
-        <v>2274800</v>
+        <v>2199200</v>
       </c>
       <c r="I59" s="3">
-        <v>1314700</v>
+        <v>1271100</v>
       </c>
       <c r="J59" s="3">
-        <v>798800</v>
+        <v>772200</v>
       </c>
       <c r="K59" s="3">
         <v>525600</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>8437600</v>
+        <v>8157300</v>
       </c>
       <c r="E60" s="3">
-        <v>12178100</v>
+        <v>11773500</v>
       </c>
       <c r="F60" s="3">
-        <v>6842000</v>
+        <v>6614700</v>
       </c>
       <c r="G60" s="3">
-        <v>3873900</v>
+        <v>3745200</v>
       </c>
       <c r="H60" s="3">
-        <v>3008400</v>
+        <v>2908500</v>
       </c>
       <c r="I60" s="3">
-        <v>1637400</v>
+        <v>1583000</v>
       </c>
       <c r="J60" s="3">
-        <v>1222400</v>
+        <v>1181800</v>
       </c>
       <c r="K60" s="3">
         <v>640800</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8148200</v>
+        <v>7877500</v>
       </c>
       <c r="E61" s="3">
-        <v>5314900</v>
+        <v>5138300</v>
       </c>
       <c r="F61" s="3">
-        <v>5115800</v>
+        <v>4945900</v>
       </c>
       <c r="G61" s="3">
-        <v>5038600</v>
+        <v>4871200</v>
       </c>
       <c r="H61" s="3">
-        <v>3482700</v>
+        <v>3367000</v>
       </c>
       <c r="I61" s="3">
-        <v>2563100</v>
+        <v>2477900</v>
       </c>
       <c r="J61" s="3">
-        <v>1445200</v>
+        <v>1397200</v>
       </c>
       <c r="K61" s="3">
         <v>335700</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1492700</v>
+        <v>1443100</v>
       </c>
       <c r="E62" s="3">
-        <v>517500</v>
+        <v>500300</v>
       </c>
       <c r="F62" s="3">
-        <v>546400</v>
+        <v>528300</v>
       </c>
       <c r="G62" s="3">
-        <v>532000</v>
+        <v>514300</v>
       </c>
       <c r="H62" s="3">
-        <v>197100</v>
+        <v>190500</v>
       </c>
       <c r="I62" s="3">
-        <v>299400</v>
+        <v>289500</v>
       </c>
       <c r="J62" s="3">
-        <v>71200</v>
+        <v>68800</v>
       </c>
       <c r="K62" s="3">
         <v>43700</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2221,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2251,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2313,37 +2281,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19986200</v>
+        <v>19322300</v>
       </c>
       <c r="E66" s="3">
-        <v>20240500</v>
+        <v>19568100</v>
       </c>
       <c r="F66" s="3">
-        <v>13315900</v>
+        <v>12873600</v>
       </c>
       <c r="G66" s="3">
-        <v>10032200</v>
+        <v>9698900</v>
       </c>
       <c r="H66" s="3">
-        <v>7130500</v>
+        <v>6893600</v>
       </c>
       <c r="I66" s="3">
-        <v>4832400</v>
+        <v>4671800</v>
       </c>
       <c r="J66" s="3">
-        <v>2910900</v>
+        <v>2814200</v>
       </c>
       <c r="K66" s="3">
         <v>1170500</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2357,7 +2325,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2355,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2417,7 +2385,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2447,7 +2415,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2477,37 +2445,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>19181400</v>
+        <v>18544200</v>
       </c>
       <c r="E72" s="3">
-        <v>15186500</v>
+        <v>14682000</v>
       </c>
       <c r="F72" s="3">
-        <v>12723700</v>
+        <v>12301100</v>
       </c>
       <c r="G72" s="3">
-        <v>11080200</v>
+        <v>10712100</v>
       </c>
       <c r="H72" s="3">
-        <v>7079400</v>
+        <v>6844200</v>
       </c>
       <c r="I72" s="3">
-        <v>5123900</v>
+        <v>4953700</v>
       </c>
       <c r="J72" s="3">
-        <v>3567500</v>
+        <v>3449000</v>
       </c>
       <c r="K72" s="3">
         <v>1978500</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2505,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2535,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2597,37 +2565,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>24175500</v>
+        <v>23372500</v>
       </c>
       <c r="E76" s="3">
-        <v>17118500</v>
+        <v>16549800</v>
       </c>
       <c r="F76" s="3">
-        <v>13694300</v>
+        <v>13239400</v>
       </c>
       <c r="G76" s="3">
-        <v>11910700</v>
+        <v>11515100</v>
       </c>
       <c r="H76" s="3">
-        <v>7579700</v>
+        <v>7327900</v>
       </c>
       <c r="I76" s="3">
-        <v>5702600</v>
+        <v>5513200</v>
       </c>
       <c r="J76" s="3">
-        <v>3866900</v>
+        <v>3738400</v>
       </c>
       <c r="K76" s="3">
         <v>2223900</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2657,12 +2625,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2692,37 +2660,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4072800</v>
+        <v>3937500</v>
       </c>
       <c r="E81" s="3">
-        <v>2718600</v>
+        <v>2628300</v>
       </c>
       <c r="F81" s="3">
-        <v>1643500</v>
+        <v>1588900</v>
       </c>
       <c r="G81" s="3">
-        <v>4947200</v>
+        <v>4782900</v>
       </c>
       <c r="H81" s="3">
-        <v>1950700</v>
+        <v>1885900</v>
       </c>
       <c r="I81" s="3">
-        <v>1561100</v>
+        <v>1509200</v>
       </c>
       <c r="J81" s="3">
-        <v>1548500</v>
+        <v>1497100</v>
       </c>
       <c r="K81" s="3">
         <v>965500</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2736,37 +2704,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2402300</v>
+        <v>2322500</v>
       </c>
       <c r="E83" s="3">
-        <v>1743500</v>
+        <v>1685600</v>
       </c>
       <c r="F83" s="3">
-        <v>1235900</v>
+        <v>1194800</v>
       </c>
       <c r="G83" s="3">
-        <v>869800</v>
+        <v>840900</v>
       </c>
       <c r="H83" s="3">
-        <v>589500</v>
+        <v>569900</v>
       </c>
       <c r="I83" s="3">
-        <v>393600</v>
+        <v>380500</v>
       </c>
       <c r="J83" s="3">
-        <v>224900</v>
+        <v>217400</v>
       </c>
       <c r="K83" s="3">
         <v>128700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2796,7 +2764,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2826,7 +2794,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2824,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2886,7 +2854,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2916,37 +2884,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5337900</v>
+        <v>5160500</v>
       </c>
       <c r="E89" s="3">
-        <v>4879700</v>
+        <v>4717600</v>
       </c>
       <c r="F89" s="3">
-        <v>3303400</v>
+        <v>3193600</v>
       </c>
       <c r="G89" s="3">
-        <v>2882500</v>
+        <v>2786700</v>
       </c>
       <c r="H89" s="3">
-        <v>2662100</v>
+        <v>2573600</v>
       </c>
       <c r="I89" s="3">
-        <v>2047000</v>
+        <v>1979000</v>
       </c>
       <c r="J89" s="3">
-        <v>1780300</v>
+        <v>1721200</v>
       </c>
       <c r="K89" s="3">
         <v>1189400</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2960,37 +2928,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1315100</v>
+        <v>-1271400</v>
       </c>
       <c r="E91" s="3">
-        <v>-716700</v>
+        <v>-692900</v>
       </c>
       <c r="F91" s="3">
-        <v>-625600</v>
+        <v>-604800</v>
       </c>
       <c r="G91" s="3">
-        <v>-779200</v>
+        <v>-753300</v>
       </c>
       <c r="H91" s="3">
-        <v>-717000</v>
+        <v>-693200</v>
       </c>
       <c r="I91" s="3">
-        <v>-410900</v>
+        <v>-397300</v>
       </c>
       <c r="J91" s="3">
-        <v>-347200</v>
+        <v>-335700</v>
       </c>
       <c r="K91" s="3">
         <v>-340700</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3020,7 +2988,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3050,37 +3018,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-5114200</v>
+        <v>-4944300</v>
       </c>
       <c r="E94" s="3">
-        <v>-11417900</v>
+        <v>-11038600</v>
       </c>
       <c r="F94" s="3">
-        <v>-5329500</v>
+        <v>-5152500</v>
       </c>
       <c r="G94" s="3">
-        <v>-4641100</v>
+        <v>-4487000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3334400</v>
+        <v>-3223700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3422800</v>
+        <v>-3309100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2040500</v>
+        <v>-1972700</v>
       </c>
       <c r="K94" s="3">
         <v>-2072500</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3094,7 +3062,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3124,7 +3092,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3154,7 +3122,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3184,7 +3152,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3214,57 +3182,57 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>2238300</v>
+        <v>2164000</v>
       </c>
       <c r="E100" s="3">
-        <v>6612700</v>
+        <v>6393000</v>
       </c>
       <c r="F100" s="3">
-        <v>2144000</v>
+        <v>2072800</v>
       </c>
       <c r="G100" s="3">
-        <v>1154300</v>
+        <v>1116000</v>
       </c>
       <c r="H100" s="3">
-        <v>1278100</v>
+        <v>1235600</v>
       </c>
       <c r="I100" s="3">
-        <v>1080700</v>
+        <v>1044800</v>
       </c>
       <c r="J100" s="3">
-        <v>1412500</v>
+        <v>1365600</v>
       </c>
       <c r="K100" s="3">
         <v>352800</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>282300</v>
+        <v>272900</v>
       </c>
       <c r="E101" s="3">
-        <v>-46900</v>
+        <v>-45300</v>
       </c>
       <c r="F101" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="G101" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="H101" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="I101" s="3">
-        <v>-29800</v>
+        <v>-28800</v>
       </c>
       <c r="J101" s="3">
         <v>-1700</v>
@@ -3274,30 +3242,30 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>2744200</v>
+        <v>2653100</v>
       </c>
       <c r="E102" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="F102" s="3">
-        <v>139300</v>
+        <v>134700</v>
       </c>
       <c r="G102" s="3">
-        <v>-577700</v>
+        <v>-558500</v>
       </c>
       <c r="H102" s="3">
-        <v>617500</v>
+        <v>597000</v>
       </c>
       <c r="I102" s="3">
-        <v>-324800</v>
+        <v>-314100</v>
       </c>
       <c r="J102" s="3">
-        <v>1150600</v>
+        <v>1112400</v>
       </c>
       <c r="K102" s="3">
         <v>-531500</v>
